--- a/biology/Botanique/Jardin_Christiane-Desroches-Noblecourt/Jardin_Christiane-Desroches-Noblecourt.xlsx
+++ b/biology/Botanique/Jardin_Christiane-Desroches-Noblecourt/Jardin_Christiane-Desroches-Noblecourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Christiane-Desroches-Noblecourt, anciennement de la place Rodin, est un espace vert du 16e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par le 1, avenue Adrien-Hébrard à Paris.
 Il est desservi par la ligne 9 à la station de métro Ranelagh.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom de l'archéologue Christiane Desroches Noblecourt (1913-2011) depuis mai 2016[1]. Il portait initialement le nom de « jardin de la place-Rodin », dont il est contigu[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom de l'archéologue Christiane Desroches Noblecourt (1913-2011) depuis mai 2016. Il portait initialement le nom de « jardin de la place-Rodin », dont il est contigu.
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé en 1972.
-Il accueille deux tables de ping-pong, deux aires de jeux pour enfants et deux bacs à sable. Pour les adultes s'y trouvent également quatre agrès de sport. Une table de pique-nique et deux points d'eau potable sont par ailleurs mis à disposition[2].
-Le jardin est accessible aux personnes à mobilité réduite sur certaines zones[2].
-Les chiens y sont interdits[2].
-Des hibiscus y sont plantés et fleurissent en été[2].
+Il accueille deux tables de ping-pong, deux aires de jeux pour enfants et deux bacs à sable. Pour les adultes s'y trouvent également quatre agrès de sport. Une table de pique-nique et deux points d'eau potable sont par ailleurs mis à disposition.
+Le jardin est accessible aux personnes à mobilité réduite sur certaines zones.
+Les chiens y sont interdits.
+Des hibiscus y sont plantés et fleurissent en été.
 			Allée.
 			Aire de jeu.
 			Installations sportives.
